--- a/regionseng/6/standard of living/expenditures.xlsx
+++ b/regionseng/6/standard of living/expenditures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -299,7 +299,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -358,22 +358,6 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -397,6 +381,25 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -709,35 +712,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="6">
         <v>2011</v>
@@ -772,8 +778,14 @@
       <c r="L2" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -807,11 +819,17 @@
       <c r="K3" s="15">
         <v>121.91461051385363</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="15">
         <v>144.7768815178714</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="19">
+        <v>163.73623247514021</v>
+      </c>
+      <c r="N3" s="23">
+        <v>182.28573772132532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -845,11 +863,17 @@
       <c r="K4" s="16">
         <v>103.53625669720748</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="16">
         <v>124.00878901894883</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="20">
+        <v>137.97266098392328</v>
+      </c>
+      <c r="N4" s="24">
+        <v>154.73558952170058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
@@ -883,11 +907,17 @@
       <c r="K5" s="17">
         <v>40.30057854852943</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="17">
         <v>50.180111919328752</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="21">
+        <v>54.769674804148245</v>
+      </c>
+      <c r="N5" s="25">
+        <v>54.558116183612817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -921,11 +951,17 @@
       <c r="K6" s="17">
         <v>3.0265102881774912</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="17">
         <v>3.5730427206548061</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="21">
+        <v>4.6279355530064894</v>
+      </c>
+      <c r="N6" s="25">
+        <v>6.0345575553181972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
@@ -959,11 +995,17 @@
       <c r="K7" s="17">
         <v>4.7540844725077314</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="17">
         <v>4.5502985520645343</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="21">
+        <v>4.7420646294990005</v>
+      </c>
+      <c r="N7" s="25">
+        <v>8.3191487815054561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
@@ -997,11 +1039,17 @@
       <c r="K8" s="17">
         <v>16.998317098063151</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="17">
         <v>19.934095171587625</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="21">
+        <v>23.196909285335288</v>
+      </c>
+      <c r="N8" s="25">
+        <v>25.356216799514769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1035,11 +1083,17 @@
       <c r="K9" s="17">
         <v>10.609665622792146</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="17">
         <v>11.924464344635769</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="21">
+        <v>12.070478452402266</v>
+      </c>
+      <c r="N9" s="25">
+        <v>16.530978820458529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -1073,11 +1127,17 @@
       <c r="K10" s="17">
         <v>12.879136680311065</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="17">
         <v>16.062084678231884</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="21">
+        <v>18.718079113320698</v>
+      </c>
+      <c r="N10" s="25">
+        <v>20.626532860455388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
@@ -1111,11 +1171,17 @@
       <c r="K11" s="17">
         <v>1.8088372004496258</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="17">
         <v>2.6965809486719761</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="21">
+        <v>3.1818923841451006</v>
+      </c>
+      <c r="N11" s="25">
+        <v>2.8783517640889489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
@@ -1149,11 +1215,17 @@
       <c r="K12" s="17">
         <v>13.159126786376795</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="17">
         <v>15.088110683773481</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="21">
+        <v>16.665626762066172</v>
+      </c>
+      <c r="N12" s="25">
+        <v>20.431686756746466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -1187,11 +1259,17 @@
       <c r="K13" s="16">
         <v>18.378353816646175</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="16">
         <v>20.768092498922595</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="20">
+        <v>25.763571491216958</v>
+      </c>
+      <c r="N13" s="24">
+        <v>27.550148199624726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -1225,11 +1303,17 @@
       <c r="K14" s="16">
         <v>39.699504695306146</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="16">
         <v>46.89078374919638</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="20">
+        <v>55.933515946164448</v>
+      </c>
+      <c r="N14" s="24">
+        <v>61.483100725799552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>7</v>
       </c>
@@ -1263,11 +1347,17 @@
       <c r="K15" s="17">
         <v>3.60244320443344</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="17">
         <v>4.3764403887634273</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="21">
+        <v>6.1320886424306229</v>
+      </c>
+      <c r="N15" s="25">
+        <v>6.2333173952484131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>8</v>
       </c>
@@ -1301,11 +1391,17 @@
       <c r="K16" s="17">
         <v>5.1235236177113856</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="17">
         <v>5.1391235753707889</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="21">
+        <v>7.9889208968887333</v>
+      </c>
+      <c r="N16" s="25">
+        <v>10.327018411532084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>9</v>
       </c>
@@ -1339,11 +1435,17 @@
       <c r="K17" s="17">
         <v>27.628094794286099</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="17">
         <v>32.585306098281862</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="21">
+        <v>34.390174207008357</v>
+      </c>
+      <c r="N17" s="25">
+        <v>35.065128704488124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
@@ -1377,11 +1479,17 @@
       <c r="K18" s="17">
         <v>3.3454430788752232</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="17">
         <v>4.7899136867802934</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="M18" s="21">
+        <v>7.4223321998367311</v>
+      </c>
+      <c r="N18" s="25">
+        <v>9.8576362145309471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1415,11 +1523,17 @@
       <c r="K19" s="16">
         <v>143.23576139251358</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="16">
         <v>170.89957276814516</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="M19" s="20">
+        <v>193.90617693008772</v>
+      </c>
+      <c r="N19" s="24">
+        <v>216.21869024750018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
@@ -1453,11 +1567,17 @@
       <c r="K20" s="18">
         <v>161.61411520915976</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="18">
         <v>191.66766526706775</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="22">
+        <v>219.66974842130466</v>
+      </c>
+      <c r="N20" s="26">
+        <v>243.76883844712486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1468,7 +1588,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1479,23 +1599,25 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="6">
         <v>2011</v>
@@ -1530,8 +1652,14 @@
       <c r="L24" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>11</v>
       </c>
@@ -1565,11 +1693,17 @@
       <c r="K25" s="15">
         <v>801.29089839315543</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="15">
         <v>985.4187696231869</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="19">
+        <v>1219.8947354657205</v>
+      </c>
+      <c r="N25" s="23">
+        <v>1291.1785813942554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
@@ -1603,11 +1737,17 @@
       <c r="K26" s="16">
         <v>680.49809449001486</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="16">
         <v>844.0614759506982</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="20">
+        <v>1027.9467178899404</v>
+      </c>
+      <c r="N26" s="24">
+        <v>1096.0335211483739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>0</v>
       </c>
@@ -1641,11 +1781,17 @@
       <c r="K27" s="17">
         <v>264.8779063871558</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="17">
         <v>341.54917296650564</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="21">
+        <v>408.0540815356436</v>
+      </c>
+      <c r="N27" s="25">
+        <v>386.44971317061521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -1679,11 +1825,17 @@
       <c r="K28" s="17">
         <v>19.891915641516114</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="17">
         <v>24.319790043026412</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="21">
+        <v>34.47981019133573</v>
+      </c>
+      <c r="N28" s="25">
+        <v>42.744383411550899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -1717,11 +1869,17 @@
       <c r="K29" s="17">
         <v>31.246497872211904</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="17">
         <v>30.971447606709908</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="21">
+        <v>35.330113496060406</v>
+      </c>
+      <c r="N29" s="25">
+        <v>58.926753438787166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -1755,11 +1913,17 @@
       <c r="K30" s="17">
         <v>111.72243196504326</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="17">
         <v>135.68072009558088</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="21">
+        <v>172.82544668635154</v>
+      </c>
+      <c r="N30" s="25">
+        <v>179.60485798825354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>17</v>
       </c>
@@ -1793,11 +1957,17 @@
       <c r="K31" s="17">
         <v>69.73264699534964</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="17">
         <v>81.163448609410992</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="21">
+        <v>89.929473129129008</v>
+      </c>
+      <c r="N31" s="25">
+        <v>117.09333955182532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>4</v>
       </c>
@@ -1831,11 +2001,17 @@
       <c r="K32" s="17">
         <v>84.648878076200745</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="17">
         <v>109.32601638648291</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="21">
+        <v>139.45652604311417</v>
+      </c>
+      <c r="N32" s="25">
+        <v>146.10324302255643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>5</v>
       </c>
@@ -1869,11 +2045,17 @@
       <c r="K33" s="17">
         <v>11.888688150552222</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="17">
         <v>18.354183712001351</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="21">
+        <v>23.706260426056957</v>
+      </c>
+      <c r="N33" s="25">
+        <v>20.388134551654712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>6</v>
       </c>
@@ -1907,11 +2089,17 @@
       <c r="K34" s="17">
         <v>86.489129401985096</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="17">
         <v>102.69669653098026</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="21">
+        <v>124.16500638224872</v>
+      </c>
+      <c r="N34" s="25">
+        <v>144.72309601313057</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>13</v>
       </c>
@@ -1945,11 +2133,17 @@
       <c r="K35" s="16">
         <v>120.79280390314068</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="16">
         <v>141.35729367248862</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="20">
+        <v>191.94801757578045</v>
+      </c>
+      <c r="N35" s="24">
+        <v>195.14506024588133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>14</v>
       </c>
@@ -1983,11 +2177,17 @@
       <c r="K36" s="16">
         <v>260.92731337931286</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="16">
         <v>319.16047606741813</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="20">
+        <v>416.72512312858817</v>
+      </c>
+      <c r="N36" s="24">
+        <v>435.50122882472101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>7</v>
       </c>
@@ -2021,11 +2221,17 @@
       <c r="K37" s="17">
         <v>23.677268372708891</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="17">
         <v>29.788088111927756</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="M37" s="21">
+        <v>45.686300089053326</v>
+      </c>
+      <c r="N37" s="25">
+        <v>44.152252460261565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>8</v>
       </c>
@@ -2059,11 +2265,17 @@
       <c r="K38" s="17">
         <v>33.674658232271433</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L38" s="17">
         <v>34.97926448953293</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="M38" s="21">
+        <v>59.520378579898683</v>
+      </c>
+      <c r="N38" s="25">
+        <v>73.149030468961513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="12" t="s">
         <v>9</v>
       </c>
@@ -2097,11 +2309,17 @@
       <c r="K39" s="17">
         <v>181.58726673772318</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L39" s="17">
         <v>221.79074384331267</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="M39" s="21">
+        <v>256.21935861537588</v>
+      </c>
+      <c r="N39" s="25">
+        <v>248.37567493230853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="12" t="s">
         <v>10</v>
       </c>
@@ -2135,11 +2353,17 @@
       <c r="K40" s="17">
         <v>21.988120036609367</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L40" s="17">
         <v>32.602379622644719</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="21">
+        <v>55.299085844260226</v>
+      </c>
+      <c r="N40" s="25">
+        <v>69.824270963189463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
@@ -2173,11 +2397,17 @@
       <c r="K41" s="8">
         <v>941.4254078693275</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L41" s="8">
         <v>1163.2219520181163</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="20">
+        <v>1444.6718410185285</v>
+      </c>
+      <c r="N41" s="24">
+        <v>1531.5347499730954</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>16</v>
       </c>
@@ -2211,11 +2441,17 @@
       <c r="K42" s="10">
         <v>1062.2182117724683</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="10">
         <v>1304.5792456906049</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="22">
+        <v>1636.6198585943087</v>
+      </c>
+      <c r="N42" s="26">
+        <v>1726.6798102189766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2226,7 +2462,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:14">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2237,23 +2473,25 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="6">
         <v>2011</v>
@@ -2288,8 +2526,14 @@
       <c r="L46" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>11</v>
       </c>
@@ -2323,11 +2567,17 @@
       <c r="K47" s="15">
         <v>250.34674793100405</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L47" s="15">
         <v>300.69574226675081</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="23">
+        <v>350.87739185658921</v>
+      </c>
+      <c r="N47" s="23">
+        <v>402.69323748944441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>12</v>
       </c>
@@ -2361,11 +2611,17 @@
       <c r="K48" s="16">
         <v>212.60753774995769</v>
       </c>
-      <c r="L48" s="29">
+      <c r="L48" s="16">
         <v>257.56125198104041</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="24">
+        <v>295.66753003738876</v>
+      </c>
+      <c r="N48" s="24">
+        <v>341.83132634650275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="12" t="s">
         <v>0</v>
       </c>
@@ -2399,11 +2655,17 @@
       <c r="K49" s="17">
         <v>82.755616712697957</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="17">
         <v>104.2220680706442</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="25">
+        <v>117.36828408477541</v>
+      </c>
+      <c r="N49" s="25">
+        <v>120.52607467783281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>1</v>
       </c>
@@ -2437,11 +2699,17 @@
       <c r="K50" s="17">
         <v>6.2148171169267936</v>
       </c>
-      <c r="L50" s="30">
+      <c r="L50" s="17">
         <v>7.4210655857059784</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="25">
+        <v>9.9174014936849346</v>
+      </c>
+      <c r="N50" s="25">
+        <v>13.331133577123417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="12" t="s">
         <v>2</v>
       </c>
@@ -2475,11 +2743,17 @@
       <c r="K51" s="17">
         <v>9.7623212022348191</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L51" s="17">
         <v>9.4507865227050587</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="25">
+        <v>10.161973584353833</v>
+      </c>
+      <c r="N51" s="25">
+        <v>18.378096925511031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="12" t="s">
         <v>3</v>
       </c>
@@ -2513,11 +2787,17 @@
       <c r="K52" s="17">
         <v>34.905360299834825</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="17">
         <v>41.402311482283686</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="25">
+        <v>49.709651346766599</v>
+      </c>
+      <c r="N52" s="25">
+        <v>56.015227308078657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="13" t="s">
         <v>17</v>
       </c>
@@ -2551,11 +2831,17 @@
       <c r="K53" s="17">
         <v>21.78652151785829</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="17">
         <v>24.766631382380218</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="25">
+        <v>25.866345730674478</v>
+      </c>
+      <c r="N53" s="25">
+        <v>36.519112593750123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="12" t="s">
         <v>4</v>
       </c>
@@ -2589,11 +2875,17 @@
       <c r="K54" s="17">
         <v>26.446789031150605</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="17">
         <v>33.360301893753274</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="25">
+        <v>40.111774166077971</v>
+      </c>
+      <c r="N54" s="25">
+        <v>45.566731657621425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="12" t="s">
         <v>5</v>
       </c>
@@ -2627,11 +2919,17 @@
       <c r="K55" s="17">
         <v>3.7143744196084514</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="17">
         <v>5.6006898438629964</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="M55" s="25">
+        <v>6.8186135960266867</v>
+      </c>
+      <c r="N55" s="25">
+        <v>6.3586586915890795</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="12" t="s">
         <v>6</v>
       </c>
@@ -2665,11 +2963,17 @@
       <c r="K56" s="17">
         <v>27.021737449645919</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="17">
         <v>31.337397199704949</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="M56" s="25">
+        <v>35.713486035028822</v>
+      </c>
+      <c r="N56" s="25">
+        <v>45.136290914996245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="11" t="s">
         <v>13</v>
       </c>
@@ -2703,11 +3007,17 @@
       <c r="K57" s="16">
         <v>37.73921018104636</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="16">
         <v>43.134490285710385</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="M57" s="24">
+        <v>55.209861819200519</v>
+      </c>
+      <c r="N57" s="24">
+        <v>60.861911142941665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="11" t="s">
         <v>14</v>
       </c>
@@ -2741,11 +3051,17 @@
       <c r="K58" s="16">
         <v>81.521335736967757</v>
       </c>
-      <c r="L58" s="29">
+      <c r="L58" s="16">
         <v>97.390266160649375</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+      <c r="M58" s="24">
+        <v>119.86232916125562</v>
+      </c>
+      <c r="N58" s="24">
+        <v>135.82427891321166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="12" t="s">
         <v>7</v>
       </c>
@@ -2779,11 +3095,17 @@
       <c r="K59" s="17">
         <v>7.397472190042186</v>
       </c>
-      <c r="L59" s="30">
+      <c r="L59" s="17">
         <v>9.0896901313830316</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+      <c r="M59" s="25">
+        <v>13.140715631258619</v>
+      </c>
+      <c r="N59" s="25">
+        <v>13.770220279269827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="12" t="s">
         <v>8</v>
       </c>
@@ -2817,11 +3139,17 @@
       <c r="K60" s="17">
         <v>10.520949623966398</v>
       </c>
-      <c r="L60" s="30">
+      <c r="L60" s="17">
         <v>10.673752341501583</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="M60" s="25">
+        <v>17.119801070752722</v>
+      </c>
+      <c r="N60" s="25">
+        <v>22.81374576935124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="12" t="s">
         <v>9</v>
       </c>
@@ -2855,11 +3183,17 @@
       <c r="K61" s="17">
         <v>56.733181151352383</v>
       </c>
-      <c r="L61" s="30">
+      <c r="L61" s="17">
         <v>67.678366196903042</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="M61" s="25">
+        <v>73.696178596761769</v>
+      </c>
+      <c r="N61" s="25">
+        <v>77.463494278315309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="12" t="s">
         <v>10</v>
       </c>
@@ -2893,11 +3227,17 @@
       <c r="K62" s="17">
         <v>6.8697327716067864</v>
       </c>
-      <c r="L62" s="30">
+      <c r="L62" s="17">
         <v>9.9484574908617294</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+      <c r="M62" s="25">
+        <v>15.905633862482473</v>
+      </c>
+      <c r="N62" s="25">
+        <v>21.776818586275287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="11" t="s">
         <v>15</v>
       </c>
@@ -2931,11 +3271,17 @@
       <c r="K63" s="16">
         <v>294.12887348692539</v>
       </c>
-      <c r="L63" s="29">
+      <c r="L63" s="16">
         <v>354.95151814168969</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+      <c r="M63" s="24">
+        <v>415.52985919864443</v>
+      </c>
+      <c r="N63" s="24">
+        <v>477.65560525971455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="14" t="s">
         <v>16</v>
       </c>
@@ -2969,122 +3315,136 @@
       <c r="K64" s="18">
         <v>331.86808366797175</v>
       </c>
-      <c r="L64" s="31">
+      <c r="L64" s="18">
         <v>398.08600842740009</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1">
-      <c r="A65" s="21" t="s">
+      <c r="M64" s="26">
+        <v>470.73972101784483</v>
+      </c>
+      <c r="N64" s="26">
+        <v>538.51751640265627</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1">
+      <c r="A65" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
-      <c r="A66" s="22" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-    </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1">
-      <c r="A67" s="23" t="s">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1">
+      <c r="A67" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-    </row>
-    <row r="68" spans="1:12" s="5" customFormat="1" ht="45" customHeight="1">
-      <c r="A68" s="19" t="s">
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+    </row>
+    <row r="68" spans="1:14" s="5" customFormat="1" ht="45" customHeight="1">
+      <c r="A68" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A68:N68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
